--- a/backend/wordsList/letterValues.xlsx
+++ b/backend/wordsList/letterValues.xlsx
@@ -179,13 +179,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -196,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -205,27 +211,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -236,9 +227,7 @@
       <top style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -249,10 +238,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -306,8 +295,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabel7" displayName="Tabel7" ref="A1:D38" tableType="xml" totalsRowShown="0" connectionId="6">
-  <autoFilter ref="A1:D38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabel7" displayName="Tabel7" ref="A1:D39" tableType="xml" totalsRowShown="0" connectionId="6">
+  <autoFilter ref="A1:D39"/>
   <tableColumns count="4">
     <tableColumn id="1" uniqueName="Letter" name="Letter" dataDxfId="1">
       <xmlColumnPr mapId="6" xpath="/LetterValues/LetterValue/Letter" xmlDataType="string"/>
@@ -626,7 +615,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,19 +1112,20 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="6">
+      <c r="B39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5">
         <v>9.81</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/backend/wordsList/letterValues.xlsx
+++ b/backend/wordsList/letterValues.xlsx
@@ -25,23 +25,38 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="letterValueSchema" type="4" refreshedVersion="0" background="1">
+  <connection id="1" name="characterfrequency-german" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\Daan\Desktop\characterfrequency-german.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="2" name="characterfrequency-nederlands" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\Daan\Desktop\characterfrequency-nederlands.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="3" name="characterfrequency-spanish" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\Daan\Desktop\characterfrequency-spanish.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="4" name="letterValueSchema" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\git\Time2Learn\backend\wordsList\letterValueSchema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" name="letterValueSchema1" type="4" refreshedVersion="0" background="1">
+  <connection id="5" name="letterValueSchema1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\git\Time2Learn\backend\wordsList\letterValueSchema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="3" name="letterValueSchema2" type="4" refreshedVersion="0" background="1">
+  <connection id="6" name="letterValueSchema2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\git\Time2Learn\backend\wordsList\letterValueSchema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="4" name="letterValueSchema3" type="4" refreshedVersion="0" background="1">
+  <connection id="7" name="letterValueSchema3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\git\Time2Learn\backend\wordsList\letterValueSchema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="5" name="letterValueSchema4" type="4" refreshedVersion="0" background="1">
+  <connection id="8" name="letterValueSchema4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\git\Time2Learn\backend\wordsList\letterValueSchema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="6" name="letterValueSchema5" type="4" refreshedVersion="0" background="1">
+  <connection id="9" name="letterValueSchema5" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\git\Time2Learn\backend\wordsList\letterValueSchema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="10" name="letterValuesSchema" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\git\Time2Learn\backend\wordsList\letterValuesSchema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="11" name="letterValuesSchema1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\git\Time2Learn\backend\wordsList\letterValuesSchema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
@@ -202,7 +217,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -219,29 +234,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -268,7 +270,7 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema4">
+  <Schema ID="Schema2">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="LetterValues">
         <xsd:complexType>
@@ -277,9 +279,9 @@
               <xsd:complexType>
                 <xsd:sequence minOccurs="0">
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Letter" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="ValueDutch" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="ValueGerman" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:double" name="ValueSpanish" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ValueDutch" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ValueGerman" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ValueSpanish" form="unqualified"/>
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
@@ -288,27 +290,30 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="6" Name="LetterValues_toewijzing" RootElement="LetterValues" SchemaID="Schema4" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="6" DataBindingLoadMode="1"/>
+  <Map ID="11" Name="LetterValues_toewijzing" RootElement="LetterValues" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="11" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabel7" displayName="Tabel7" ref="A1:D39" tableType="xml" totalsRowShown="0" connectionId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabel7" displayName="Tabel7" ref="A1:D39" tableType="xml" totalsRowShown="0" connectionId="11">
   <autoFilter ref="A1:D39"/>
+  <sortState ref="A2:D39">
+    <sortCondition ref="A1:A39"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" uniqueName="Letter" name="Letter" dataDxfId="1">
-      <xmlColumnPr mapId="6" xpath="/LetterValues/LetterValue/Letter" xmlDataType="string"/>
+      <xmlColumnPr mapId="11" xpath="/LetterValues/LetterValue/Letter" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="ValueDutch" name="ValueDutch" dataDxfId="0">
-      <xmlColumnPr mapId="6" xpath="/LetterValues/LetterValue/ValueDutch" xmlDataType="double"/>
+      <xmlColumnPr mapId="11" xpath="/LetterValues/LetterValue/ValueDutch" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="ValueSpanish" name="ValueSpanish">
-      <xmlColumnPr mapId="6" xpath="/LetterValues/LetterValue/ValueSpanish" xmlDataType="double"/>
+    <tableColumn id="3" uniqueName="ValueGerman" name="ValueGerman">
+      <xmlColumnPr mapId="11" xpath="/LetterValues/LetterValue/ValueGerman" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="ValueGerman" name="ValueGerman">
-      <xmlColumnPr mapId="6" xpath="/LetterValues/LetterValue/ValueGerman" xmlDataType="double"/>
+    <tableColumn id="4" uniqueName="ValueSpanish" name="ValueSpanish">
+      <xmlColumnPr mapId="11" xpath="/LetterValues/LetterValue/ValueSpanish" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -615,12 +620,20 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="3" customWidth="1"/>
+    <col min="8" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2" customWidth="1"/>
+    <col min="12" max="34" width="12" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="12" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -631,494 +644,502 @@
         <v>26</v>
       </c>
       <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>6.39</v>
+      <c r="B2" s="1">
+        <v>12.370078740157499</v>
       </c>
       <c r="C2" s="1">
-        <v>2.31</v>
-      </c>
-      <c r="D2">
-        <v>7.04</v>
+        <v>13.752808988764</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.77372262773723</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>9.36</v>
-      </c>
-      <c r="C3" s="1">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="D3">
-        <v>8.9700000000000006</v>
+        <v>37</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>19.417518248175181</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>9.39</v>
+        <v>28</v>
+      </c>
+      <c r="B4" s="1">
+        <v>19.980052493438322</v>
       </c>
       <c r="C4" s="1">
-        <v>7.47</v>
-      </c>
-      <c r="D4">
-        <v>8.33</v>
-      </c>
+        <v>19.415730337078653</v>
+      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>7.45</v>
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>18.653543307086601</v>
       </c>
       <c r="C5" s="1">
-        <v>6.95</v>
-      </c>
-      <c r="D5">
-        <v>7.36</v>
+        <v>17.820224719101098</v>
+      </c>
+      <c r="D5" s="1">
+        <v>17.9613138686131</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>18.713385826771653</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
+        <v>16.471910112359552</v>
+      </c>
+      <c r="D6" s="1">
+        <v>14.660583941605839</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>9.66</v>
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>14.614173228346456</v>
       </c>
       <c r="C7" s="1">
-        <v>9.56</v>
-      </c>
-      <c r="D7">
-        <v>9.2200000000000006</v>
+        <v>14.426966292134832</v>
+      </c>
+      <c r="D7" s="1">
+        <v>13.551094890510949</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>8.5299999999999994</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>9.36</v>
-      </c>
-      <c r="D8">
-        <v>8.4</v>
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>8.5299999999999994</v>
-      </c>
-      <c r="C9" s="1">
-        <v>9.24</v>
-      </c>
-      <c r="D9" s="2">
-        <v>7.36</v>
+        <v>36</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <v>19.528467153284673</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="2">
-        <v>7.03</v>
-      </c>
-      <c r="C10" s="1">
-        <v>6.54</v>
-      </c>
-      <c r="D10">
-        <v>5.74</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B10" s="1">
+        <v>19.980052493438322</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>9.14</v>
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>19.281889763779528</v>
       </c>
       <c r="C11" s="1">
-        <v>9.67</v>
-      </c>
-      <c r="D11">
-        <v>9.8800000000000008</v>
+        <v>18.348314606741575</v>
+      </c>
+      <c r="D11" s="1">
+        <v>19.070802919708029</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>8.69</v>
+        <v>7</v>
+      </c>
+      <c r="B12" s="1">
+        <v>16.898162729658793</v>
       </c>
       <c r="C12" s="1">
-        <v>9.94</v>
-      </c>
-      <c r="D12">
-        <v>9.31</v>
+        <v>16.629213483146067</v>
+      </c>
+      <c r="D12" s="1">
+        <v>18.64087591240876</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
-        <v>8.2100000000000009</v>
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>16.898162729658793</v>
       </c>
       <c r="C13" s="1">
-        <v>6.57</v>
-      </c>
-      <c r="D13">
-        <v>8.09</v>
+        <v>14.426966292134832</v>
+      </c>
+      <c r="D13" s="1">
+        <v>18.391240875912409</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
-        <v>8.8000000000000007</v>
+        <v>30</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13.736482939632545</v>
       </c>
       <c r="C14" s="1">
-        <v>7.99</v>
-      </c>
-      <c r="D14">
-        <v>8.65</v>
+        <v>11.011235955056179</v>
+      </c>
+      <c r="D14" s="1">
+        <v>12.705109489051095</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
-        <v>5.32</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5.53</v>
-      </c>
-      <c r="D15">
-        <v>4.41</v>
+        <v>38</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1">
+        <v>19.056934306569342</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
-        <v>7.26</v>
-      </c>
-      <c r="C16" s="1">
-        <v>4.47</v>
-      </c>
-      <c r="D16">
-        <v>8.82</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B16" s="1">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
-        <v>9.3000000000000007</v>
+        <v>9</v>
+      </c>
+      <c r="B17" s="1">
+        <v>18.194750656167979</v>
       </c>
       <c r="C17" s="1">
-        <v>8.11</v>
-      </c>
-      <c r="D17">
-        <v>9.65</v>
+        <v>19.752808988764045</v>
+      </c>
+      <c r="D17" s="1">
+        <v>19.306569343065693</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2">
         <v>10</v>
       </c>
+      <c r="B18" s="1">
+        <v>17.22729658792651</v>
+      </c>
       <c r="C18" s="1">
-        <v>9.2799999999999994</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
+        <v>18.539325842696631</v>
+      </c>
+      <c r="D18" s="1">
+        <v>19.875182481751825</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2">
-        <v>7.35</v>
+        <v>11</v>
+      </c>
+      <c r="B19" s="1">
+        <v>16.219947506561681</v>
       </c>
       <c r="C19" s="1">
-        <v>5.8</v>
-      </c>
-      <c r="D19">
-        <v>6.34</v>
+        <v>15.977528089887642</v>
+      </c>
+      <c r="D19" s="1">
+        <v>12.760583941605839</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2">
-        <v>8.19</v>
+        <v>12</v>
+      </c>
+      <c r="B20" s="1">
+        <v>17.456692913385826</v>
       </c>
       <c r="C20" s="1">
-        <v>5.28</v>
-      </c>
-      <c r="D20">
-        <v>6.59</v>
+        <v>17.157303370786519</v>
+      </c>
+      <c r="D20" s="1">
+        <v>15.756204379562044</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2">
-        <v>6.97</v>
+        <v>13</v>
+      </c>
+      <c r="B21" s="1">
+        <v>10.125984251968502</v>
       </c>
       <c r="C21" s="1">
-        <v>6.99</v>
-      </c>
-      <c r="D21">
-        <v>6.93</v>
+        <v>8.191011235955056</v>
+      </c>
+      <c r="D21" s="1">
+        <v>10.555474452554744</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2">
-        <v>9.01</v>
-      </c>
-      <c r="C22" s="1">
-        <v>7.02</v>
-      </c>
-      <c r="D22">
-        <v>7.97</v>
+        <v>41</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1">
+        <v>19.791970802919707</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2">
-        <v>8.9499999999999993</v>
+        <v>14</v>
+      </c>
+      <c r="B23" s="1">
+        <v>14.225196850393701</v>
       </c>
       <c r="C23" s="1">
-        <v>9.32</v>
-      </c>
-      <c r="D23">
-        <v>9.56</v>
+        <v>17.50561797752809</v>
+      </c>
+      <c r="D23" s="1">
+        <v>8.3226277372262789</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2">
-        <v>9.19</v>
-      </c>
-      <c r="C24" s="1">
-        <v>9.99</v>
-      </c>
-      <c r="D24">
-        <v>9.06</v>
+        <v>40</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1">
+        <v>18.973722627737228</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2">
-        <v>9.98</v>
+        <v>32</v>
+      </c>
+      <c r="B25" s="1">
+        <v>20</v>
       </c>
       <c r="C25" s="1">
-        <v>9.92</v>
-      </c>
-      <c r="D25">
-        <v>9.98</v>
-      </c>
+        <v>19.685393258426966</v>
+      </c>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2">
-        <v>9.98</v>
+        <v>15</v>
+      </c>
+      <c r="B26" s="1">
+        <v>18.523884514435697</v>
       </c>
       <c r="C26" s="1">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="D26">
-        <v>9.98</v>
+        <v>19.269662921348313</v>
+      </c>
+      <c r="D26" s="1">
+        <v>16.01970802919708</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2">
-        <v>9.25</v>
+        <v>16</v>
+      </c>
+      <c r="B27" s="1">
+        <v>20</v>
       </c>
       <c r="C27" s="1">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="D27">
-        <v>9.3699999999999992</v>
+        <v>20</v>
+      </c>
+      <c r="D27" s="1">
+        <v>18.48832116788321</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="2">
-        <v>9.99</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28">
-        <v>9.7200000000000006</v>
+        <v>17</v>
+      </c>
+      <c r="B28" s="1">
+        <v>14.404724409448818</v>
+      </c>
+      <c r="C28" s="1">
+        <v>12.280898876404494</v>
+      </c>
+      <c r="D28" s="1">
+        <v>11.137956204379561</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="2">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="B29" s="1">
+        <v>16.180052493438321</v>
       </c>
       <c r="C29" s="1">
-        <v>10</v>
-      </c>
-      <c r="D29">
-        <v>9.66</v>
+        <v>12.808988764044944</v>
+      </c>
+      <c r="D29" s="1">
+        <v>10.042335766423358</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="2">
-        <v>10</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30">
-        <v>9.85</v>
-      </c>
+      <c r="A30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="1">
+        <v>19.606741573033709</v>
+      </c>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="2">
-        <v>9.99</v>
-      </c>
-      <c r="C31" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="B31" s="1">
+        <v>13.606824146981626</v>
+      </c>
+      <c r="C31" s="1">
+        <v>13.516853932584269</v>
+      </c>
+      <c r="D31" s="1">
+        <v>13.648175182481753</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="2">
-        <v>10</v>
-      </c>
-      <c r="C32" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B32" s="1">
+        <v>17.915485564304461</v>
+      </c>
+      <c r="C32" s="1">
+        <v>15.719101123595506</v>
+      </c>
+      <c r="D32" s="1">
+        <v>13.717518248175182</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="1">
-        <v>9.7200000000000006</v>
+        <v>39</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1">
+        <v>19.861313868613138</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="B34" s="1">
+        <v>19.990026246719161</v>
+      </c>
       <c r="C34" s="1">
-        <v>9.7799999999999994</v>
+        <v>19.292134831460675</v>
+      </c>
+      <c r="D34" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B35" s="1">
+        <v>17.775853018372704</v>
+      </c>
       <c r="C35" s="1">
-        <v>9.5500000000000007</v>
+        <v>19.078651685393258</v>
+      </c>
+      <c r="D35" s="1">
+        <v>18.571532846715328</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B36" s="1">
+        <v>18.294488188976377</v>
+      </c>
       <c r="C36" s="1">
-        <v>9.93</v>
+        <v>18.022471910112358</v>
+      </c>
+      <c r="D36" s="1">
+        <v>19.972262773722626</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B37" s="1">
+        <v>19.96010498687664</v>
+      </c>
       <c r="C37" s="1">
-        <v>9.51</v>
+        <v>19.966292134831459</v>
+      </c>
+      <c r="D37" s="1">
+        <v>19.833576642335768</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B38" s="1">
+        <v>19.950131233595801</v>
+      </c>
       <c r="C38" s="1">
-        <v>9.9</v>
+        <v>19.966292134831459</v>
+      </c>
+      <c r="D38" s="1">
+        <v>18.516058394160584</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="5">
-        <v>9.81</v>
+      <c r="A39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="3">
+        <v>18.414173228346456</v>
+      </c>
+      <c r="C39" s="1">
+        <v>18.662921348314608</v>
+      </c>
+      <c r="D39" s="3">
+        <v>19.375912408759124</v>
       </c>
     </row>
   </sheetData>
